--- a/biology/Botanique/Aphloiaceae/Aphloiaceae.xlsx
+++ b/biology/Botanique/Aphloiaceae/Aphloiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Aphloiaceae est une petite famille créée pour l'espèce Aphloia theiformis, un arbuste à feuilles persistantes originaire d'Afrique de l'Est, de Madagascar, des Mascareignes et des Seychelles.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Aphloia composé du préfixe grec "a-", non, sans, et φλοιός / phloios, écorce, et signifie donc littéralement « sans écorce » : c'est ce qu'avait effectivement compris le botaniste Philibert Commerson qui créa le nom du genre en 1770, après avoir entendu le terme « Change écorce » nom vernaculaire prononcé avec l'accent créole réunionnais pour désigner cette plante qui est appelée aussi « goyave marron »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Aphloia composé du préfixe grec "a-", non, sans, et φλοιός / phloios, écorce, et signifie donc littéralement « sans écorce » : c'est ce qu'avait effectivement compris le botaniste Philibert Commerson qui créa le nom du genre en 1770, après avoir entendu le terme « Change écorce » nom vernaculaire prononcé avec l'accent créole réunionnais pour désigner cette plante qui est appelée aussi « goyave marron ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[2] les situe à la base des Rosidées (anglais rosids), mais le Angiosperm Phylogeny Website les situe dans l'ordre des Crossosomatales, choix qui a été confirmée par la classification phylogénétique APG III (2009)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) les situe à la base des Rosidées (anglais rosids), mais le Angiosperm Phylogeny Website les situe dans l'ordre des Crossosomatales, choix qui a été confirmée par la classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (1 juin 2010)[4] et Angiosperm Phylogeny Website                        (1 juin 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (1 juin 2010) et Angiosperm Phylogeny Website                        (1 juin 2010) :
 genre Aphloia
 Aphloia theiformis</t>
         </is>
